--- a/data/transcriptions/transcription_ex10.xlsx
+++ b/data/transcriptions/transcription_ex10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E8734E-CD56-C744-B5CD-349250FF4C53}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2ED1286-88C4-0E44-9328-DC68B78C8FCE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_47_16_801" sheetId="2" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Eugène</t>
   </si>
   <si>
-    <t>Braine l'aleud</t>
-  </si>
-  <si>
     <t>7 Juin 1919</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Alphonsine</t>
   </si>
   <si>
-    <t>neuf dbre</t>
-  </si>
-  <si>
     <t>441^4</t>
   </si>
   <si>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>Humels</t>
+  </si>
+  <si>
+    <t>neuf Dbre</t>
+  </si>
+  <si>
+    <t>Braine l'alleud</t>
   </si>
 </sst>
 </file>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,16 +1053,16 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="11"/>
       <c r="K4" s="2"/>
       <c r="L4" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R4">
         <v>330</v>
@@ -1097,7 +1097,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5">
         <v>163</v>
@@ -1130,7 +1130,7 @@
         <v>440</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>38</v>
@@ -1139,13 +1139,13 @@
         <v>39</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="16">
         <v>4102</v>
@@ -1158,14 +1158,14 @@
       <c r="L7" s="16"/>
       <c r="M7" s="1"/>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R7">
         <v>96</v>
@@ -1177,7 +1177,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="12"/>
@@ -1199,22 +1199,22 @@
         <v>441</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="16">
         <v>54611</v>
@@ -1226,17 +1226,17 @@
       <c r="K9" s="2"/>
       <c r="L9" s="16"/>
       <c r="M9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R9">
         <v>116</v>
@@ -1246,25 +1246,25 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="21" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="16">
         <v>75</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" t="s">
@@ -1298,7 +1298,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="11"/>
       <c r="C11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="13"/>
@@ -1320,7 +1320,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12"/>
@@ -1340,25 +1340,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="16">
         <v>625</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
@@ -1392,7 +1392,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="12"/>
@@ -1411,34 +1411,34 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="11"/>
       <c r="K15" s="2"/>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" t="s">
@@ -1457,25 +1457,25 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="16">
         <v>710</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" t="s">

--- a/data/transcriptions/transcription_ex10.xlsx
+++ b/data/transcriptions/transcription_ex10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2ED1286-88C4-0E44-9328-DC68B78C8FCE}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708F23C6-D574-ED4E-9457-519C0CC28479}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_47_16_801" sheetId="2" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>"</t>
   </si>
   <si>
-    <t>Arreté le trois décembre 1919 servais</t>
-  </si>
-  <si>
     <t>439^5</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>7 7b 1918</t>
   </si>
   <si>
-    <t>Arreté le quatre décembre 1919 servais</t>
-  </si>
-  <si>
     <t>Defalque</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>7 Juin 1919</t>
   </si>
   <si>
-    <t>Arreté le cinq décembre 1919 servais</t>
-  </si>
-  <si>
     <t>cinq Dbre</t>
   </si>
   <si>
@@ -188,12 +179,6 @@
     <t>Elise</t>
   </si>
   <si>
-    <t>Arreté le six décembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le sept décembre 1919 servais</t>
-  </si>
-  <si>
     <t>de Lalieux</t>
   </si>
   <si>
@@ -206,9 +191,6 @@
     <t>441^3</t>
   </si>
   <si>
-    <t>Arreté le huit décembre 1919 servais</t>
-  </si>
-  <si>
     <t>7 7bre 1918</t>
   </si>
   <si>
@@ -309,6 +291,24 @@
   </si>
   <si>
     <t>Braine l'alleud</t>
+  </si>
+  <si>
+    <t>Arrêté le quatre décembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le trois décembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le cinq décembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le six décembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le sept décembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le huit décembre 1919 servais</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
       <c r="A3" s="20"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D3" s="17"/>
       <c r="F3" s="14"/>
@@ -1035,34 +1035,34 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="11"/>
       <c r="K4" s="2"/>
       <c r="L4" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R4">
         <v>330</v>
@@ -1097,7 +1097,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R5">
         <v>163</v>
@@ -1109,7 +1109,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="16" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="12"/>
@@ -1130,22 +1130,22 @@
         <v>440</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="16">
         <v>4102</v>
@@ -1158,14 +1158,14 @@
       <c r="L7" s="16"/>
       <c r="M7" s="1"/>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R7">
         <v>96</v>
@@ -1177,7 +1177,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="16" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="12"/>
@@ -1199,22 +1199,22 @@
         <v>441</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H9" s="16">
         <v>54611</v>
@@ -1226,17 +1226,17 @@
       <c r="K9" s="2"/>
       <c r="L9" s="16"/>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R9">
         <v>116</v>
@@ -1246,25 +1246,25 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H10" s="16">
         <v>75</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" t="s">
@@ -1298,7 +1298,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="11"/>
       <c r="C11" s="16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="13"/>
@@ -1320,7 +1320,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="16" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12"/>
@@ -1340,25 +1340,25 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H13" s="16">
         <v>625</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
@@ -1392,7 +1392,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="12"/>
@@ -1411,34 +1411,34 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="11"/>
       <c r="K15" s="2"/>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" t="s">
@@ -1457,25 +1457,25 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H16" s="16">
         <v>710</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" t="s">

--- a/data/transcriptions/transcription_ex10.xlsx
+++ b/data/transcriptions/transcription_ex10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD68B63B-7754-44D5-BCC3-F48A1FCDD28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A4EEE-7C69-114E-ABAC-AF2E4370D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_47_16_801" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Numéros de la consignation au sommier n'30</t>
   </si>
   <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
-  </si>
-  <si>
     <t>Arrêté le trois décembre 1919 servais</t>
   </si>
   <si>
@@ -293,13 +284,22 @@
   </si>
   <si>
     <t>330 163</t>
+  </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -356,17 +363,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -392,21 +388,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -491,122 +472,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,608 +879,608 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="33" t="s">
+      <c r="Q1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="35" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="D2" s="32" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="6" t="s">
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>440</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4102</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="18">
+        <v>4102</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="2"/>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="9">
+        <v>96</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>441</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="17">
+        <v>54611</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="18">
+        <v>54611</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="9">
+        <v>116</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="17">
+        <v>75</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="18">
+        <v>75</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="17">
+        <v>625</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="18">
+        <v>625</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>440</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="24">
-        <v>4102</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="25">
-        <v>4102</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="9"/>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="16">
-        <v>96</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="16"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>441</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="24">
-        <v>54611</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="25">
-        <v>54611</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="16">
-        <v>116</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="24">
-        <v>75</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="25">
-        <v>75</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="24">
-        <v>625</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="25">
-        <v>625</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
-      <c r="M13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="17">
+        <v>710</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="18">
+        <v>710</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="24">
-        <v>710</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="25">
-        <v>710</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="O15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
